--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 4: ?</t>
-  </si>
-  <si>
     <t>Day 5: ?</t>
   </si>
   <si>
@@ -149,6 +146,12 @@
   </si>
   <si>
     <t>Overall</t>
+  </si>
+  <si>
+    <t>Day 4: Repose Record</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -697,7 +700,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +729,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -745,17 +748,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -771,22 +774,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>27</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>28</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -813,13 +816,13 @@
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -846,20 +849,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -879,41 +882,59 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>37</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>38</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2.1990740740740741E-2</v>
+      </c>
+      <c r="D8" s="15">
+        <f>E8-C8</f>
+        <v>6.1342592592592594E-3</v>
+      </c>
+      <c r="E8" s="16">
+        <v>2.8125000000000001E-2</v>
+      </c>
+      <c r="F8" s="25">
+        <v>1.3657407407407408E-2</v>
+      </c>
+      <c r="G8" s="24">
+        <f>E8-F8</f>
+        <v>1.4467592592592593E-2</v>
+      </c>
+      <c r="H8" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="15"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="15"/>
       <c r="I9" s="19"/>
       <c r="J9" s="20"/>
@@ -922,13 +943,13 @@
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="15"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="15"/>
       <c r="I10" s="19"/>
       <c r="J10" s="20"/>
@@ -937,13 +958,13 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="15"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="15"/>
       <c r="I11" s="19"/>
       <c r="J11" s="20"/>
@@ -952,13 +973,13 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="15"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="15"/>
       <c r="I12" s="19"/>
       <c r="J12" s="20"/>
@@ -967,13 +988,13 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="15"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="15"/>
       <c r="I13" s="19"/>
       <c r="J13" s="20"/>
@@ -982,13 +1003,13 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
       <c r="E14" s="16"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="15"/>
       <c r="I14" s="19"/>
       <c r="J14" s="20"/>
@@ -997,13 +1018,13 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
       <c r="E15" s="16"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="15"/>
       <c r="I15" s="19"/>
       <c r="J15" s="20"/>
@@ -1012,13 +1033,13 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
       <c r="E16" s="16"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="15"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
@@ -1027,13 +1048,13 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
       <c r="E17" s="16"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
       <c r="H17" s="15"/>
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
@@ -1042,13 +1063,13 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
       <c r="E18" s="16"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
       <c r="H18" s="15"/>
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
@@ -1057,13 +1078,13 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
       <c r="E19" s="16"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
       <c r="H19" s="15"/>
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
@@ -1072,13 +1093,13 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
       <c r="E20" s="16"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
       <c r="H20" s="15"/>
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
@@ -1087,13 +1108,13 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
       <c r="E21" s="16"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
       <c r="H21" s="15"/>
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
@@ -1102,13 +1123,13 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
       <c r="E22" s="16"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
       <c r="H22" s="15"/>
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
@@ -1117,13 +1138,13 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
       <c r="E23" s="16"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
       <c r="H23" s="15"/>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
@@ -1132,13 +1153,13 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
       <c r="E24" s="16"/>
-      <c r="F24" s="15"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
       <c r="H24" s="15"/>
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
@@ -1147,13 +1168,13 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
       <c r="E25" s="16"/>
-      <c r="F25" s="15"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
       <c r="H25" s="15"/>
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
@@ -1162,13 +1183,13 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
       <c r="H26" s="15"/>
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
@@ -1177,13 +1198,13 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="15"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="25"/>
+      <c r="G27" s="25"/>
       <c r="H27" s="15"/>
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
@@ -1192,13 +1213,13 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
+      <c r="F28" s="25"/>
+      <c r="G28" s="25"/>
       <c r="H28" s="15"/>
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
@@ -1207,13 +1228,13 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="15"/>
-      <c r="G29" s="15"/>
+      <c r="F29" s="25"/>
+      <c r="G29" s="25"/>
       <c r="H29" s="15"/>
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
   <si>
     <t>Puzzle</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Day 4: Repose Record</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -700,7 +697,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,8 +917,8 @@
       <c r="I8" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="J8" s="20" t="s">
-        <v>45</v>
+      <c r="J8" s="26" t="s">
+        <v>37</v>
       </c>
       <c r="K8" s="4"/>
     </row>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 5: ?</t>
-  </si>
-  <si>
     <t>Day 6: ?</t>
   </si>
   <si>
@@ -149,6 +146,12 @@
   </si>
   <si>
     <t>Day 4: Repose Record</t>
+  </si>
+  <si>
+    <t>Day 5: Alchemical Reduction</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -696,7 +699,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
@@ -726,13 +729,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -745,17 +748,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -771,22 +774,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>27</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -813,13 +816,13 @@
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -846,20 +849,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -879,20 +882,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -912,35 +915,53 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>36</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>37</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
+        <v>44</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2.1979166666666664E-2</v>
+      </c>
+      <c r="D9" s="15">
+        <f>E9-C9</f>
+        <v>4.305555555555559E-3</v>
+      </c>
+      <c r="E9" s="16">
+        <v>2.6284722222222223E-2</v>
+      </c>
+      <c r="F9" s="25">
+        <v>1.230324074074074E-2</v>
+      </c>
+      <c r="G9" s="25">
+        <f>E9-F9</f>
+        <v>1.3981481481481484E-2</v>
+      </c>
+      <c r="H9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="15"/>
@@ -955,7 +976,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="15"/>
@@ -970,7 +991,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="15"/>
@@ -985,7 +1006,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="15"/>
@@ -1000,7 +1021,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
@@ -1015,7 +1036,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
@@ -1030,7 +1051,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -1045,7 +1066,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1060,7 +1081,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1075,7 +1096,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1090,7 +1111,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1105,7 +1126,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1120,7 +1141,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1135,7 +1156,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1150,7 +1171,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1165,7 +1186,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1180,7 +1201,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1195,7 +1216,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1210,7 +1231,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1225,7 +1246,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>Puzzle</t>
   </si>
@@ -149,9 +149,6 @@
   </si>
   <si>
     <t>Day 5: Alchemical Reduction</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -700,7 +697,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -953,8 +950,8 @@
       <c r="I9" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>45</v>
+      <c r="J9" s="26" t="s">
+        <v>35</v>
       </c>
       <c r="K9" s="4"/>
     </row>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 6: ?</t>
-  </si>
-  <si>
     <t>Day 7: ?</t>
   </si>
   <si>
@@ -149,6 +146,12 @@
   </si>
   <si>
     <t>Day 5: Alchemical Reduction</t>
+  </si>
+  <si>
+    <t>Day 6: Chronal Coordinates</t>
+  </si>
+  <si>
+    <t>4th</t>
   </si>
 </sst>
 </file>
@@ -696,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="M10" sqref="M10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -726,13 +729,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -745,17 +748,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -771,22 +774,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>25</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>39</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>26</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -813,13 +816,13 @@
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -846,20 +849,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -879,20 +882,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -912,20 +915,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>35</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>36</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -945,27 +948,41 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="15"/>
+        <v>44</v>
+      </c>
+      <c r="C10" s="2">
+        <v>4.7152777777777773E-2</v>
+      </c>
+      <c r="D10" s="15">
+        <f>E10-C10</f>
+        <v>1.4571759259259263E-2</v>
+      </c>
+      <c r="E10" s="16">
+        <v>6.1724537037037036E-2</v>
+      </c>
+      <c r="F10" s="25">
+        <v>1.7233796296296296E-2</v>
+      </c>
+      <c r="G10" s="25">
+        <f>E10-F10</f>
+        <v>4.449074074074074E-2</v>
+      </c>
+      <c r="H10" s="15" t="s">
+        <v>45</v>
+      </c>
       <c r="I10" s="19"/>
       <c r="J10" s="20"/>
       <c r="K10" s="4"/>
@@ -973,7 +990,7 @@
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="15"/>
@@ -988,7 +1005,7 @@
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="15"/>
@@ -1003,7 +1020,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="15"/>
@@ -1018,7 +1035,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
@@ -1033,7 +1050,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
@@ -1048,7 +1065,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -1063,7 +1080,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1078,7 +1095,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1093,7 +1110,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1108,7 +1125,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1123,7 +1140,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1138,7 +1155,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1153,7 +1170,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1168,7 +1185,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1183,7 +1200,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1198,7 +1215,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1213,7 +1230,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1228,7 +1245,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1243,7 +1260,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
   <si>
     <t>Puzzle</t>
   </si>
@@ -700,18 +700,18 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
     <col min="3" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="2.7109375" customWidth="1"/>
+    <col min="11" max="11" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -802,7 +802,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f>E5-C5</f>
+        <f t="shared" ref="D5:D10" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -812,7 +812,7 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f>E5-F5</f>
+        <f t="shared" ref="G5:G10" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -835,7 +835,7 @@
         <v>7.4537037037037028E-3</v>
       </c>
       <c r="D6" s="15">
-        <f>E6-C6</f>
+        <f t="shared" si="0"/>
         <v>8.2291666666666693E-3</v>
       </c>
       <c r="E6" s="16">
@@ -845,7 +845,7 @@
         <v>5.9953703703703697E-3</v>
       </c>
       <c r="G6" s="24">
-        <f>E6-F6</f>
+        <f t="shared" si="1"/>
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -868,7 +868,7 @@
         <v>8.1018518518518514E-3</v>
       </c>
       <c r="D7" s="15">
-        <f>E7-C7</f>
+        <f t="shared" si="0"/>
         <v>7.7314814814814833E-3</v>
       </c>
       <c r="E7" s="16">
@@ -878,7 +878,7 @@
         <v>9.5023148148148159E-3</v>
       </c>
       <c r="G7" s="24">
-        <f>E7-F7</f>
+        <f t="shared" si="1"/>
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
@@ -901,7 +901,7 @@
         <v>2.1990740740740741E-2</v>
       </c>
       <c r="D8" s="15">
-        <f>E8-C8</f>
+        <f t="shared" si="0"/>
         <v>6.1342592592592594E-3</v>
       </c>
       <c r="E8" s="16">
@@ -911,7 +911,7 @@
         <v>1.3657407407407408E-2</v>
       </c>
       <c r="G8" s="24">
-        <f>E8-F8</f>
+        <f t="shared" si="1"/>
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -934,7 +934,7 @@
         <v>2.1979166666666664E-2</v>
       </c>
       <c r="D9" s="15">
-        <f>E9-C9</f>
+        <f t="shared" si="0"/>
         <v>4.305555555555559E-3</v>
       </c>
       <c r="E9" s="16">
@@ -944,7 +944,7 @@
         <v>1.230324074074074E-2</v>
       </c>
       <c r="G9" s="25">
-        <f>E9-F9</f>
+        <f t="shared" si="1"/>
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
@@ -967,7 +967,7 @@
         <v>4.7152777777777773E-2</v>
       </c>
       <c r="D10" s="15">
-        <f>E10-C10</f>
+        <f t="shared" si="0"/>
         <v>1.4571759259259263E-2</v>
       </c>
       <c r="E10" s="16">
@@ -977,14 +977,18 @@
         <v>1.7233796296296296E-2</v>
       </c>
       <c r="G10" s="25">
-        <f>E10-F10</f>
+        <f t="shared" si="1"/>
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>45</v>
+      </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
@@ -1285,7 +1289,7 @@
       <c r="J30" s="7"/>
       <c r="K30" s="4"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 7: ?</t>
-  </si>
-  <si>
     <t>Day 8: ?</t>
   </si>
   <si>
@@ -152,6 +149,12 @@
   </si>
   <si>
     <t>4th</t>
+  </si>
+  <si>
+    <t>Day 7: The Sum of Its Parts</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -699,8 +702,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,13 +732,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -748,17 +751,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -774,22 +777,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>24</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>38</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>25</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -802,7 +805,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D10" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D11" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -812,17 +815,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G10" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G11" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -849,20 +852,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>31</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -882,20 +885,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -915,20 +918,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>34</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>35</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -948,20 +951,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -981,35 +984,53 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
+        <v>45</v>
+      </c>
+      <c r="C11" s="2">
+        <v>8.549768518518519E-2</v>
+      </c>
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>3.0497685185185183E-2</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.11599537037037037</v>
+      </c>
+      <c r="F11" s="25">
+        <v>2.6655092592592591E-2</v>
+      </c>
+      <c r="G11" s="25">
+        <f t="shared" si="1"/>
+        <v>8.9340277777777782E-2</v>
+      </c>
+      <c r="H11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>46</v>
+      </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="15"/>
@@ -1024,7 +1045,7 @@
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="15"/>
@@ -1039,7 +1060,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
@@ -1054,7 +1075,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
@@ -1069,7 +1090,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -1084,7 +1105,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1099,7 +1120,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1114,7 +1135,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1129,7 +1150,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1144,7 +1165,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1159,7 +1180,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1174,7 +1195,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1189,7 +1210,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1204,7 +1225,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1219,7 +1240,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1234,7 +1255,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1249,7 +1270,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1264,7 +1285,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
   <si>
     <t>Puzzle</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Day 7: The Sum of Its Parts</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -703,7 +700,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1023,7 +1020,7 @@
         <v>28</v>
       </c>
       <c r="J11" s="26" t="s">
-        <v>46</v>
+        <v>30</v>
       </c>
       <c r="K11" s="4"/>
     </row>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 8: ?</t>
-  </si>
-  <si>
     <t>Day 9: ?</t>
   </si>
   <si>
@@ -152,6 +149,9 @@
   </si>
   <si>
     <t>Day 7: The Sum of Its Parts</t>
+  </si>
+  <si>
+    <t>Day 8: Memory Maneuver</t>
   </si>
 </sst>
 </file>
@@ -700,7 +700,7 @@
   <dimension ref="A1:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -729,13 +729,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -748,17 +748,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -774,22 +774,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>23</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>24</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -802,7 +802,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D11" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D12" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -812,17 +812,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G11" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G12" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -849,20 +849,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -882,20 +882,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -915,20 +915,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>33</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>30</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>34</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -948,20 +948,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -981,20 +981,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1014,35 +1014,51 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="19"/>
+        <v>45</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1.9016203703703705E-2</v>
+      </c>
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2199074074074069E-2</v>
+      </c>
+      <c r="E12" s="16">
+        <v>4.1215277777777774E-2</v>
+      </c>
+      <c r="F12" s="25">
+        <v>8.4606481481481494E-3</v>
+      </c>
+      <c r="G12" s="25">
+        <f t="shared" si="1"/>
+        <v>3.2754629629629627E-2</v>
+      </c>
+      <c r="H12" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="I12" s="19" t="s">
+        <v>27</v>
+      </c>
       <c r="J12" s="20"/>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="15"/>
@@ -1057,7 +1073,7 @@
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
@@ -1072,7 +1088,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
@@ -1087,7 +1103,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -1102,7 +1118,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1117,7 +1133,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1132,7 +1148,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1147,7 +1163,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1162,7 +1178,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1177,7 +1193,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1192,7 +1208,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1207,7 +1223,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1222,7 +1238,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1237,7 +1253,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1252,7 +1268,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1267,7 +1283,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1282,7 +1298,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
   <si>
     <t>Puzzle</t>
   </si>
@@ -152,6 +152,12 @@
   </si>
   <si>
     <t>Day 8: Memory Maneuver</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Adj. Median</t>
   </si>
 </sst>
 </file>
@@ -332,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -395,6 +401,10 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -697,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K31"/>
+  <dimension ref="A1:K33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1336,6 +1346,24 @@
       <c r="J31" s="4"/>
       <c r="K31" s="4"/>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D32" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E32" s="27">
+        <f>MEDIAN(E5:E29)</f>
+        <v>2.720486111111111E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="E33" s="27">
+        <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
+        <v>2.6284722222222223E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
   <si>
     <t>Puzzle</t>
   </si>
@@ -338,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -406,6 +406,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K33"/>
+  <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1062,7 +1064,9 @@
       <c r="I12" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="J12" s="20"/>
+      <c r="J12" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
@@ -1354,8 +1358,10 @@
         <f>MEDIAN(E5:E29)</f>
         <v>2.720486111111111E-2</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
         <v>47</v>
       </c>
@@ -1363,8 +1369,40 @@
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
         <v>2.6284722222222223E-2</v>
       </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="29"/>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="29"/>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="29"/>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="29"/>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="30"/>
+    </row>
+    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B46" s="29"/>
     </row>
   </sheetData>
+  <sortState ref="E37:E43">
+    <sortCondition ref="E37"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 9: ?</t>
-  </si>
-  <si>
     <t>Day 10: ?</t>
   </si>
   <si>
@@ -158,6 +155,12 @@
   </si>
   <si>
     <t>Adj. Median</t>
+  </si>
+  <si>
+    <t>Day 9: Marble Mania</t>
+  </si>
+  <si>
+    <t>10th</t>
   </si>
 </sst>
 </file>
@@ -712,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -741,13 +744,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -760,17 +763,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -786,22 +789,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>22</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>23</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -814,7 +817,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D12" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D13" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -824,17 +827,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G12" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G13" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -861,20 +864,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -894,20 +897,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -927,20 +930,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>32</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>33</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -960,20 +963,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -993,20 +996,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1026,20 +1029,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1059,35 +1062,51 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C13" s="2"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="19"/>
+        <v>47</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3.7800925925925925E-2</v>
+      </c>
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>8.3900462962962968E-2</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.12170138888888889</v>
+      </c>
+      <c r="F13" s="25">
+        <v>1.9432870370370371E-2</v>
+      </c>
+      <c r="G13" s="25">
+        <f t="shared" si="1"/>
+        <v>0.10226851851851851</v>
+      </c>
+      <c r="H13" s="15" t="s">
+        <v>48</v>
+      </c>
+      <c r="I13" s="19" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="20"/>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="15"/>
@@ -1102,7 +1121,7 @@
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
@@ -1117,7 +1136,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -1132,7 +1151,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1147,7 +1166,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1162,7 +1181,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1177,7 +1196,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1192,7 +1211,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1207,7 +1226,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1222,7 +1241,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1237,7 +1256,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1252,7 +1271,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1267,7 +1286,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1282,7 +1301,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1297,7 +1316,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1312,7 +1331,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1352,22 +1371,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>2.720486111111111E-2</v>
+        <v>2.8125000000000001E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>2.6284722222222223E-2</v>
+        <v>2.720486111111111E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -714,8 +714,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1100,7 +1100,9 @@
       <c r="I13" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="20"/>
+      <c r="J13" s="26" t="s">
+        <v>42</v>
+      </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 10: ?</t>
-  </si>
-  <si>
     <t>Day 11: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>10th</t>
+  </si>
+  <si>
+    <t>Day 10: The Stars Align</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +744,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -763,17 +763,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -789,22 +789,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>21</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -817,7 +817,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D13" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D14" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -827,17 +827,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G13" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G14" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -864,20 +864,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -897,20 +897,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -930,20 +930,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>31</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>32</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -963,20 +963,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -996,20 +996,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1029,20 +1029,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1062,20 +1062,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1095,35 +1095,51 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C14" s="2"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3.7291666666666667E-2</v>
+      </c>
+      <c r="D14" s="15">
+        <f t="shared" si="0"/>
+        <v>4.2824074074074292E-4</v>
+      </c>
+      <c r="E14" s="16">
+        <v>3.771990740740741E-2</v>
+      </c>
+      <c r="F14" s="25">
+        <v>1.3912037037037037E-2</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="1"/>
+        <v>2.3807870370370375E-2</v>
+      </c>
+      <c r="H14" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="I14" s="19" t="s">
+        <v>25</v>
+      </c>
       <c r="J14" s="20"/>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="15"/>
@@ -1138,7 +1154,7 @@
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -1153,7 +1169,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1168,7 +1184,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1183,7 +1199,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1198,7 +1214,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1213,7 +1229,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1228,7 +1244,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1243,7 +1259,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1258,7 +1274,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1273,7 +1289,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1288,7 +1304,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1303,7 +1319,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1318,7 +1334,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1333,7 +1349,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1373,22 +1389,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>2.8125000000000001E-2</v>
+        <v>3.2922453703703704E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>2.720486111111111E-2</v>
+        <v>2.8125000000000001E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1133,9 @@
       <c r="I14" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="J14" s="20"/>
+      <c r="J14" s="26" t="s">
+        <v>41</v>
+      </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 11: ?</t>
-  </si>
-  <si>
     <t>Day 12: ?</t>
   </si>
   <si>
@@ -161,6 +158,12 @@
   </si>
   <si>
     <t>Day 10: The Stars Align</t>
+  </si>
+  <si>
+    <t>Day 11: Chronal Charge</t>
+  </si>
+  <si>
+    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -714,7 +717,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
       <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
@@ -744,13 +747,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -763,17 +766,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -789,22 +792,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>21</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -817,7 +820,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D14" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D15" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -827,17 +830,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G14" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G15" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -864,20 +867,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -897,20 +900,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>31</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -930,20 +933,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>30</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>31</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -963,20 +966,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -996,20 +999,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1029,20 +1032,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1062,20 +1065,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1095,20 +1098,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1128,35 +1131,53 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
+        <v>48</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2.4270833333333335E-2</v>
+      </c>
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2893518518518518E-2</v>
+      </c>
+      <c r="E15" s="16">
+        <v>4.7164351851851853E-2</v>
+      </c>
+      <c r="F15" s="25">
+        <v>1.0081018518518519E-2</v>
+      </c>
+      <c r="G15" s="25">
+        <f t="shared" si="1"/>
+        <v>3.7083333333333336E-2</v>
+      </c>
+      <c r="H15" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="I15" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J15" s="26" t="s">
+        <v>49</v>
+      </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="15"/>
@@ -1171,7 +1192,7 @@
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1186,7 +1207,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1201,7 +1222,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1216,7 +1237,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1231,7 +1252,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1246,7 +1267,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1261,7 +1282,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1276,7 +1297,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1291,7 +1312,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1306,7 +1327,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1321,7 +1342,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1336,7 +1357,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1351,7 +1372,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1391,22 +1412,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>3.2922453703703704E-2</v>
+        <v>3.771990740740741E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>2.8125000000000001E-2</v>
+        <v>3.2922453703703704E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -161,9 +161,6 @@
   </si>
   <si>
     <t>Day 11: Chronal Charge</t>
-  </si>
-  <si>
-    <t>TBD</t>
   </si>
 </sst>
 </file>
@@ -717,9 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" workbookViewId="0">
-      <selection activeCell="J15" sqref="J15"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1170,7 +1165,7 @@
         <v>24</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="K15" s="4"/>
     </row>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 12: ?</t>
-  </si>
-  <si>
     <t>Day 13: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Day 11: Chronal Charge</t>
+  </si>
+  <si>
+    <t>Day 12: Subterranean Sustainability</t>
   </si>
 </sst>
 </file>
@@ -714,7 +714,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" activeCellId="1" sqref="E16 E10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -742,13 +744,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -761,17 +763,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -787,22 +789,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>19</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>20</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -815,7 +817,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D15" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D16" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -825,17 +827,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G15" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G16" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -862,20 +864,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -895,20 +897,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -928,20 +930,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>29</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>30</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -961,20 +963,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -994,20 +996,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1027,20 +1029,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1060,20 +1062,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1093,20 +1095,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1126,20 +1128,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1159,35 +1161,51 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2.6273148148148153E-2</v>
+      </c>
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>2.3819444444444445E-2</v>
+      </c>
+      <c r="E16" s="16">
+        <v>5.0092592592592598E-2</v>
+      </c>
+      <c r="F16" s="25">
+        <v>1.9398148148148147E-2</v>
+      </c>
+      <c r="G16" s="25">
+        <f t="shared" si="1"/>
+        <v>3.0694444444444451E-2</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>23</v>
+      </c>
       <c r="J16" s="20"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="15"/>
@@ -1202,7 +1220,7 @@
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1217,7 +1235,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1232,7 +1250,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1247,7 +1265,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1262,7 +1280,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1277,7 +1295,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1292,7 +1310,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1307,7 +1325,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1322,7 +1340,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1337,7 +1355,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1352,7 +1370,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1367,7 +1385,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1407,22 +1425,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>3.771990740740741E-2</v>
+        <v>3.9467592592592596E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>3.2922453703703704E-2</v>
+        <v>3.771990740740741E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" activeCellId="1" sqref="E16 E10"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1199,7 +1199,9 @@
       <c r="I16" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="J16" s="20"/>
+      <c r="J16" s="26" t="s">
+        <v>28</v>
+      </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 13: ?</t>
-  </si>
-  <si>
     <t>Day 14: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Day 12: Subterranean Sustainability</t>
+  </si>
+  <si>
+    <t>Day 13: Mine Cart Madness</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +744,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -763,17 +763,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -789,22 +789,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>31</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>18</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>19</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -817,7 +817,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D16" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D17" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -827,17 +827,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G16" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G17" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -864,20 +864,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -897,20 +897,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -930,20 +930,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>28</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>29</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -963,20 +963,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -996,20 +996,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1029,20 +1029,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1062,20 +1062,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1095,20 +1095,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1128,20 +1128,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1161,20 +1161,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1194,35 +1194,51 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C17" s="2">
+        <v>3.8576388888888889E-2</v>
+      </c>
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>4.4421296296296299E-2</v>
+      </c>
+      <c r="E17" s="16">
+        <v>8.2997685185185188E-2</v>
+      </c>
+      <c r="F17" s="25">
+        <v>2.6064814814814815E-2</v>
+      </c>
+      <c r="G17" s="25">
+        <f t="shared" si="1"/>
+        <v>5.693287037037037E-2</v>
+      </c>
+      <c r="H17" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="19" t="s">
+        <v>22</v>
+      </c>
       <c r="J17" s="20"/>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="15"/>
@@ -1237,7 +1253,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1252,7 +1268,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1267,7 +1283,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1282,7 +1298,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1297,7 +1313,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1312,7 +1328,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1327,7 +1343,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1342,7 +1358,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1357,7 +1373,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1372,7 +1388,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1387,7 +1403,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1427,22 +1443,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>3.9467592592592596E-2</v>
+        <v>4.1215277777777774E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>3.771990740740741E-2</v>
+        <v>3.9467592592592596E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1232,7 +1232,9 @@
       <c r="I17" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="J17" s="20"/>
+      <c r="J17" s="26" t="s">
+        <v>38</v>
+      </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 14: ?</t>
-  </si>
-  <si>
     <t>Day 15: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Day 13: Mine Cart Madness</t>
+  </si>
+  <si>
+    <t>Day 14: Chocolate Charts</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +744,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -763,17 +763,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -789,22 +789,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>18</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -817,7 +817,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D17" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D18" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -827,17 +827,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G17" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G18" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -864,20 +864,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -897,20 +897,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -930,20 +930,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>27</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>28</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -963,20 +963,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -996,20 +996,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1029,20 +1029,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1062,20 +1062,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1095,20 +1095,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1128,20 +1128,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1161,20 +1161,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1194,20 +1194,20 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1227,35 +1227,51 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="16"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1.3136574074074077E-2</v>
+      </c>
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7905092592592591E-2</v>
+      </c>
+      <c r="E18" s="16">
+        <v>3.1041666666666665E-2</v>
+      </c>
+      <c r="F18" s="25">
+        <v>1.0462962962962964E-2</v>
+      </c>
+      <c r="G18" s="25">
+        <f t="shared" si="1"/>
+        <v>2.0578703703703703E-2</v>
+      </c>
+      <c r="H18" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="J18" s="20"/>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="15"/>
@@ -1270,7 +1286,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1285,7 +1301,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1300,7 +1316,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1315,7 +1331,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1330,7 +1346,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1345,7 +1361,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1360,7 +1376,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1375,7 +1391,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1390,7 +1406,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1405,7 +1421,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1445,22 +1461,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>4.1215277777777774E-2</v>
+        <v>3.9467592592592596E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>3.9467592592592596E-2</v>
+        <v>3.771990740740741E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 15: ?</t>
-  </si>
-  <si>
     <t>Day 16: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Day 14: Chocolate Charts</t>
+  </si>
+  <si>
+    <t>Day 15: Beverage Bandits</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +744,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -763,17 +763,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -789,22 +789,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>16</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>17</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -817,7 +817,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D18" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D19" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -827,17 +827,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G18" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G19" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -864,20 +864,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -897,20 +897,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -930,20 +930,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>26</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>27</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -963,20 +963,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -996,20 +996,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1029,20 +1029,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1062,20 +1062,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1095,20 +1095,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1128,20 +1128,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1161,20 +1161,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1194,20 +1194,20 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1227,20 +1227,20 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1260,10 +1260,10 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="4"/>
@@ -1271,22 +1271,38 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="16"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C19" s="2">
+        <v>0.11611111111111111</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>5.3935185185185336E-3</v>
+      </c>
+      <c r="E19" s="16">
+        <v>0.12150462962962964</v>
+      </c>
+      <c r="F19" s="25">
+        <v>9.5173611111111112E-2</v>
+      </c>
+      <c r="G19" s="25">
+        <f t="shared" si="1"/>
+        <v>2.6331018518518531E-2</v>
+      </c>
+      <c r="H19" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I19" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="J19" s="20"/>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="15"/>
@@ -1301,7 +1317,7 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1316,7 +1332,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1331,7 +1347,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1346,7 +1362,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1361,7 +1377,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1376,7 +1392,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1391,7 +1407,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1406,7 +1422,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1421,7 +1437,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1461,22 +1477,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>3.9467592592592596E-2</v>
+        <v>4.1215277777777774E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>3.771990740740741E-2</v>
+        <v>3.9467592592592596E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 16: ?</t>
-  </si>
-  <si>
     <t>Day 17: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Day 15: Beverage Bandits</t>
+  </si>
+  <si>
+    <t>Day 16: Chronal Classification</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +744,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -763,17 +763,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -789,22 +789,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>16</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -817,7 +817,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D19" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D20" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -827,17 +827,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G19" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G20" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -864,20 +864,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -897,20 +897,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -930,20 +930,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>25</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>26</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -963,20 +963,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -996,20 +996,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1029,20 +1029,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1062,20 +1062,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1095,20 +1095,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1128,20 +1128,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1161,20 +1161,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1194,20 +1194,20 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1227,20 +1227,20 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1260,10 +1260,10 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="4"/>
@@ -1271,7 +1271,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1291,10 +1291,10 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="4"/>
@@ -1302,22 +1302,38 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="16"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2.4664351851851851E-2</v>
+      </c>
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>1.409722222222223E-2</v>
+      </c>
+      <c r="E20" s="16">
+        <v>3.876157407407408E-2</v>
+      </c>
+      <c r="F20" s="25">
+        <v>2.3680555555555555E-2</v>
+      </c>
+      <c r="G20" s="25">
+        <f t="shared" si="1"/>
+        <v>1.5081018518518525E-2</v>
+      </c>
+      <c r="H20" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="I20" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="J20" s="20"/>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="15"/>
@@ -1332,7 +1348,7 @@
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1347,7 +1363,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1362,7 +1378,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1377,7 +1393,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1392,7 +1408,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1407,7 +1423,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1422,7 +1438,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1437,7 +1453,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1477,22 +1493,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>4.1215277777777774E-2</v>
+        <v>3.9988425925925927E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>3.9467592592592596E-2</v>
+        <v>3.876157407407408E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 17: ?</t>
-  </si>
-  <si>
     <t>Day 18: ?</t>
   </si>
   <si>
@@ -161,6 +158,12 @@
   </si>
   <si>
     <t>Day 16: Chronal Classification</t>
+  </si>
+  <si>
+    <t>Day 17: Reservoir Research</t>
+  </si>
+  <si>
+    <t>1st</t>
   </si>
 </sst>
 </file>
@@ -715,7 +718,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,13 +747,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -763,17 +766,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -789,22 +792,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>15</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -817,7 +820,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D20" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D21" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -827,17 +830,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G20" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G21" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -864,20 +867,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -897,20 +900,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -930,20 +933,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>25</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -963,20 +966,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -996,20 +999,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1029,20 +1032,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>20</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>21</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1062,20 +1065,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1095,20 +1098,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1128,20 +1131,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1161,20 +1164,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1194,20 +1197,20 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1227,20 +1230,20 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1260,10 +1263,10 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J18" s="20"/>
       <c r="K18" s="4"/>
@@ -1271,7 +1274,7 @@
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1291,10 +1294,10 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J19" s="20"/>
       <c r="K19" s="4"/>
@@ -1302,7 +1305,7 @@
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1322,10 +1325,10 @@
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J20" s="20"/>
       <c r="K20" s="4"/>
@@ -1333,22 +1336,38 @@
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="16"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="15"/>
-      <c r="I21" s="19"/>
+        <v>48</v>
+      </c>
+      <c r="C21" s="2">
+        <v>6.0706018518518513E-2</v>
+      </c>
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>9.1550925925925966E-3</v>
+      </c>
+      <c r="E21" s="16">
+        <v>6.986111111111111E-2</v>
+      </c>
+      <c r="F21" s="25">
+        <v>6.986111111111111E-2</v>
+      </c>
+      <c r="G21" s="25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H21" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="J21" s="20"/>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="15"/>
@@ -1363,7 +1382,7 @@
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1378,7 +1397,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1393,7 +1412,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1408,7 +1427,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1423,7 +1442,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1438,7 +1457,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1453,7 +1472,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1493,22 +1512,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>3.9988425925925927E-2</v>
+        <v>4.1215277777777774E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>3.876157407407408E-2</v>
+        <v>3.9988425925925927E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
   <si>
     <t>Puzzle</t>
   </si>
@@ -164,6 +164,9 @@
   </si>
   <si>
     <t>1st</t>
+  </si>
+  <si>
+    <t>-</t>
   </si>
 </sst>
 </file>
@@ -344,7 +347,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -414,6 +417,9 @@
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -718,7 +724,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1268,7 +1274,9 @@
       <c r="I18" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J18" s="20"/>
+      <c r="J18" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1299,7 +1307,9 @@
       <c r="I19" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J19" s="20"/>
+      <c r="J19" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1330,7 +1340,9 @@
       <c r="I20" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J20" s="20"/>
+      <c r="J20" s="31" t="s">
+        <v>50</v>
+      </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
@@ -1361,7 +1373,9 @@
       <c r="I21" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="20"/>
+      <c r="J21" s="26" t="s">
+        <v>20</v>
+      </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 18: ?</t>
-  </si>
-  <si>
     <t>Day 19: ?</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>-</t>
+  </si>
+  <si>
+    <t>Day 18: Settlers of The North Pole</t>
   </si>
 </sst>
 </file>
@@ -723,9 +723,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -753,13 +751,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -772,17 +770,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -798,22 +796,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>13</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>14</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -826,7 +824,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D21" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D22" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -836,17 +834,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G21" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G22" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -873,20 +871,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -906,20 +904,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -939,20 +937,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>24</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -972,20 +970,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -1005,20 +1003,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1038,20 +1036,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>19</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>20</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1071,20 +1069,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1104,20 +1102,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1137,20 +1135,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1170,20 +1168,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1203,20 +1201,20 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1236,20 +1234,20 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1269,20 +1267,20 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1302,20 +1300,20 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1335,20 +1333,20 @@
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
@@ -1368,35 +1366,51 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="15"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="C22" s="2">
+        <v>2.7372685185185184E-2</v>
+      </c>
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>1.7337962962962968E-2</v>
+      </c>
+      <c r="E22" s="16">
+        <v>4.4710648148148152E-2</v>
+      </c>
+      <c r="F22" s="25">
+        <v>1.7210648148148149E-2</v>
+      </c>
+      <c r="G22" s="25">
+        <f t="shared" si="1"/>
+        <v>2.7500000000000004E-2</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="19" t="s">
+        <v>17</v>
+      </c>
       <c r="J22" s="20"/>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="15"/>
@@ -1411,7 +1425,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1426,7 +1440,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1441,7 +1455,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1456,7 +1470,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1471,7 +1485,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1486,7 +1500,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1526,22 +1540,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>4.1215277777777774E-2</v>
+        <v>4.2962962962962967E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>3.9988425925925927E-2</v>
+        <v>4.1215277777777774E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
   <si>
     <t>Puzzle</t>
   </si>
@@ -723,7 +723,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1404,7 +1406,9 @@
       <c r="I22" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J22" s="20"/>
+      <c r="J22" s="26" t="s">
+        <v>33</v>
+      </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 19: ?</t>
-  </si>
-  <si>
     <t>Day 20: ?</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Day 18: Settlers of The North Pole</t>
+  </si>
+  <si>
+    <t>Day 19: Go With The Flow</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,13 +753,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -772,17 +772,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -798,22 +798,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>13</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -826,7 +826,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D22" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D23" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -836,17 +836,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G22" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G23" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -873,20 +873,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -906,20 +906,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -939,20 +939,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>23</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -972,20 +972,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -1005,20 +1005,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1038,20 +1038,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>18</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>19</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1071,20 +1071,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1104,20 +1104,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1137,20 +1137,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1170,20 +1170,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1203,20 +1203,20 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1236,20 +1236,20 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1269,20 +1269,20 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1302,20 +1302,20 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1335,20 +1335,20 @@
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
@@ -1368,20 +1368,20 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C22" s="2">
         <v>2.7372685185185184E-2</v>
@@ -1401,27 +1401,41 @@
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1.9131944444444444E-2</v>
+      </c>
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>3.574074074074074E-2</v>
+      </c>
+      <c r="E23" s="16">
+        <v>5.4872685185185184E-2</v>
+      </c>
+      <c r="F23" s="25">
+        <v>3.829861111111111E-2</v>
+      </c>
+      <c r="G23" s="25">
+        <f t="shared" si="1"/>
+        <v>1.6574074074074074E-2</v>
+      </c>
+      <c r="H23" s="15" t="s">
+        <v>18</v>
+      </c>
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
       <c r="K23" s="4"/>
@@ -1429,7 +1443,7 @@
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="15"/>
@@ -1444,7 +1458,7 @@
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1459,7 +1473,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1474,7 +1488,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1489,7 +1503,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1504,7 +1518,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1544,22 +1558,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>4.2962962962962967E-2</v>
+        <v>4.4710648148148152E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>4.1215277777777774E-2</v>
+        <v>4.2962962962962967E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 20: ?</t>
-  </si>
-  <si>
     <t>Day 21: ?</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Day 19: Go With The Flow</t>
+  </si>
+  <si>
+    <t>Day 20: A Regular Map</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,13 +753,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="17"/>
       <c r="J2" s="9"/>
@@ -772,17 +772,17 @@
       <c r="D3" s="22"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G3" s="22"/>
       <c r="H3" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K3" s="4"/>
     </row>
@@ -798,22 +798,22 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="G4" s="23" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>12</v>
       </c>
       <c r="K4" s="4"/>
     </row>
@@ -826,7 +826,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D23" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D24" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -836,17 +836,17 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G23" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G24" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I5" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J5" s="26" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="4"/>
     </row>
@@ -873,20 +873,20 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="K6" s="4"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -906,20 +906,20 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I7" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="K7" s="4"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -939,20 +939,20 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="I8" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" s="26" t="s">
         <v>21</v>
-      </c>
-      <c r="I8" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>22</v>
       </c>
       <c r="K8" s="4"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -972,20 +972,20 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I9" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -1005,20 +1005,20 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I10" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J10" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K10" s="4"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1038,20 +1038,20 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="J11" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="K11" s="4"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1071,20 +1071,20 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I12" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K12" s="4"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1104,20 +1104,20 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="I13" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J13" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1137,20 +1137,20 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I14" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J14" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1170,20 +1170,20 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I15" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K15" s="4"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1203,20 +1203,20 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I16" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="26" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1236,20 +1236,20 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I17" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J17" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1269,20 +1269,20 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I18" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J18" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K18" s="4"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1302,20 +1302,20 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I19" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J19" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K19" s="4"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1335,20 +1335,20 @@
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I20" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J20" s="31" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="K20" s="4"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
@@ -1368,20 +1368,20 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="4"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C22" s="2">
         <v>2.7372685185185184E-2</v>
@@ -1401,20 +1401,20 @@
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I22" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K22" s="4"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C23" s="2">
         <v>1.9131944444444444E-2</v>
@@ -1434,31 +1434,51 @@
         <v>1.6574074074074074E-2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
+        <v>17</v>
+      </c>
+      <c r="I23" s="19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" s="26" t="s">
+        <v>17</v>
+      </c>
       <c r="K23" s="4"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="2"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="15"/>
-      <c r="I24" s="19"/>
+        <v>50</v>
+      </c>
+      <c r="C24" s="2">
+        <v>9.1747685185185182E-2</v>
+      </c>
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>3.9120370370370472E-3</v>
+      </c>
+      <c r="E24" s="16">
+        <v>9.5659722222222229E-2</v>
+      </c>
+      <c r="F24" s="25">
+        <v>6.8888888888888888E-2</v>
+      </c>
+      <c r="G24" s="25">
+        <f t="shared" si="1"/>
+        <v>2.6770833333333341E-2</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" s="19" t="s">
+        <v>46</v>
+      </c>
       <c r="J24" s="20"/>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="15"/>
@@ -1473,7 +1493,7 @@
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
@@ -1488,7 +1508,7 @@
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1503,7 +1523,7 @@
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1518,7 +1538,7 @@
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1558,22 +1578,22 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D32" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E32" s="27">
         <f>MEDIAN(E5:E29)</f>
-        <v>4.4710648148148152E-2</v>
+        <v>4.5937500000000006E-2</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="28" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E33" s="27">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>4.2962962962962967E-2</v>
+        <v>4.4710648148148152E-2</v>
       </c>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
   <si>
     <t>Puzzle</t>
   </si>
@@ -724,7 +724,7 @@
   <dimension ref="A1:K46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="M18" sqref="M18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,7 +826,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D24" si="0">E5-C5</f>
+        <f>E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -836,7 +836,7 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="24">
-        <f t="shared" ref="G5:G24" si="1">E5-F5</f>
+        <f>E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -859,7 +859,7 @@
         <v>7.4537037037037028E-3</v>
       </c>
       <c r="D6" s="15">
-        <f t="shared" si="0"/>
+        <f>E6-C6</f>
         <v>8.2291666666666693E-3</v>
       </c>
       <c r="E6" s="16">
@@ -869,7 +869,7 @@
         <v>5.9953703703703697E-3</v>
       </c>
       <c r="G6" s="24">
-        <f t="shared" si="1"/>
+        <f>E6-F6</f>
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
@@ -892,7 +892,7 @@
         <v>8.1018518518518514E-3</v>
       </c>
       <c r="D7" s="15">
-        <f t="shared" si="0"/>
+        <f>E7-C7</f>
         <v>7.7314814814814833E-3</v>
       </c>
       <c r="E7" s="16">
@@ -902,7 +902,7 @@
         <v>9.5023148148148159E-3</v>
       </c>
       <c r="G7" s="24">
-        <f t="shared" si="1"/>
+        <f>E7-F7</f>
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
@@ -925,7 +925,7 @@
         <v>2.1990740740740741E-2</v>
       </c>
       <c r="D8" s="15">
-        <f t="shared" si="0"/>
+        <f>E8-C8</f>
         <v>6.1342592592592594E-3</v>
       </c>
       <c r="E8" s="16">
@@ -935,7 +935,7 @@
         <v>1.3657407407407408E-2</v>
       </c>
       <c r="G8" s="24">
-        <f t="shared" si="1"/>
+        <f>E8-F8</f>
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
@@ -958,7 +958,7 @@
         <v>2.1979166666666664E-2</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" si="0"/>
+        <f>E9-C9</f>
         <v>4.305555555555559E-3</v>
       </c>
       <c r="E9" s="16">
@@ -968,7 +968,7 @@
         <v>1.230324074074074E-2</v>
       </c>
       <c r="G9" s="25">
-        <f t="shared" si="1"/>
+        <f>E9-F9</f>
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
@@ -991,7 +991,7 @@
         <v>4.7152777777777773E-2</v>
       </c>
       <c r="D10" s="15">
-        <f t="shared" si="0"/>
+        <f>E10-C10</f>
         <v>1.4571759259259263E-2</v>
       </c>
       <c r="E10" s="16">
@@ -1001,7 +1001,7 @@
         <v>1.7233796296296296E-2</v>
       </c>
       <c r="G10" s="25">
-        <f t="shared" si="1"/>
+        <f>E10-F10</f>
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
@@ -1024,7 +1024,7 @@
         <v>8.549768518518519E-2</v>
       </c>
       <c r="D11" s="15">
-        <f t="shared" si="0"/>
+        <f>E11-C11</f>
         <v>3.0497685185185183E-2</v>
       </c>
       <c r="E11" s="16">
@@ -1034,7 +1034,7 @@
         <v>2.6655092592592591E-2</v>
       </c>
       <c r="G11" s="25">
-        <f t="shared" si="1"/>
+        <f>E11-F11</f>
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
@@ -1057,7 +1057,7 @@
         <v>1.9016203703703705E-2</v>
       </c>
       <c r="D12" s="15">
-        <f t="shared" si="0"/>
+        <f>E12-C12</f>
         <v>2.2199074074074069E-2</v>
       </c>
       <c r="E12" s="16">
@@ -1067,7 +1067,7 @@
         <v>8.4606481481481494E-3</v>
       </c>
       <c r="G12" s="25">
-        <f t="shared" si="1"/>
+        <f>E12-F12</f>
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
@@ -1090,7 +1090,7 @@
         <v>3.7800925925925925E-2</v>
       </c>
       <c r="D13" s="15">
-        <f t="shared" si="0"/>
+        <f>E13-C13</f>
         <v>8.3900462962962968E-2</v>
       </c>
       <c r="E13" s="16">
@@ -1100,7 +1100,7 @@
         <v>1.9432870370370371E-2</v>
       </c>
       <c r="G13" s="25">
-        <f t="shared" si="1"/>
+        <f>E13-F13</f>
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
@@ -1123,7 +1123,7 @@
         <v>3.7291666666666667E-2</v>
       </c>
       <c r="D14" s="15">
-        <f t="shared" si="0"/>
+        <f>E14-C14</f>
         <v>4.2824074074074292E-4</v>
       </c>
       <c r="E14" s="16">
@@ -1133,7 +1133,7 @@
         <v>1.3912037037037037E-2</v>
       </c>
       <c r="G14" s="25">
-        <f t="shared" si="1"/>
+        <f>E14-F14</f>
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
@@ -1156,7 +1156,7 @@
         <v>2.4270833333333335E-2</v>
       </c>
       <c r="D15" s="15">
-        <f t="shared" si="0"/>
+        <f>E15-C15</f>
         <v>2.2893518518518518E-2</v>
       </c>
       <c r="E15" s="16">
@@ -1166,7 +1166,7 @@
         <v>1.0081018518518519E-2</v>
       </c>
       <c r="G15" s="25">
-        <f t="shared" si="1"/>
+        <f>E15-F15</f>
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
@@ -1189,7 +1189,7 @@
         <v>2.6273148148148153E-2</v>
       </c>
       <c r="D16" s="15">
-        <f t="shared" si="0"/>
+        <f>E16-C16</f>
         <v>2.3819444444444445E-2</v>
       </c>
       <c r="E16" s="16">
@@ -1199,7 +1199,7 @@
         <v>1.9398148148148147E-2</v>
       </c>
       <c r="G16" s="25">
-        <f t="shared" si="1"/>
+        <f>E16-F16</f>
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -1222,7 +1222,7 @@
         <v>3.8576388888888889E-2</v>
       </c>
       <c r="D17" s="15">
-        <f t="shared" si="0"/>
+        <f>E17-C17</f>
         <v>4.4421296296296299E-2</v>
       </c>
       <c r="E17" s="16">
@@ -1232,7 +1232,7 @@
         <v>2.6064814814814815E-2</v>
       </c>
       <c r="G17" s="25">
-        <f t="shared" si="1"/>
+        <f>E17-F17</f>
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
@@ -1255,7 +1255,7 @@
         <v>1.3136574074074077E-2</v>
       </c>
       <c r="D18" s="15">
-        <f t="shared" si="0"/>
+        <f>E18-C18</f>
         <v>1.7905092592592591E-2</v>
       </c>
       <c r="E18" s="16">
@@ -1265,7 +1265,7 @@
         <v>1.0462962962962964E-2</v>
       </c>
       <c r="G18" s="25">
-        <f t="shared" si="1"/>
+        <f>E18-F18</f>
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
@@ -1288,7 +1288,7 @@
         <v>0.11611111111111111</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" si="0"/>
+        <f>E19-C19</f>
         <v>5.3935185185185336E-3</v>
       </c>
       <c r="E19" s="16">
@@ -1298,7 +1298,7 @@
         <v>9.5173611111111112E-2</v>
       </c>
       <c r="G19" s="25">
-        <f t="shared" si="1"/>
+        <f>E19-F19</f>
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
@@ -1321,7 +1321,7 @@
         <v>2.4664351851851851E-2</v>
       </c>
       <c r="D20" s="15">
-        <f t="shared" si="0"/>
+        <f>E20-C20</f>
         <v>1.409722222222223E-2</v>
       </c>
       <c r="E20" s="16">
@@ -1331,7 +1331,7 @@
         <v>2.3680555555555555E-2</v>
       </c>
       <c r="G20" s="25">
-        <f t="shared" si="1"/>
+        <f>E20-F20</f>
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
@@ -1354,7 +1354,7 @@
         <v>6.0706018518518513E-2</v>
       </c>
       <c r="D21" s="15">
-        <f t="shared" si="0"/>
+        <f>E21-C21</f>
         <v>9.1550925925925966E-3</v>
       </c>
       <c r="E21" s="16">
@@ -1364,7 +1364,7 @@
         <v>6.986111111111111E-2</v>
       </c>
       <c r="G21" s="25">
-        <f t="shared" si="1"/>
+        <f>E21-F21</f>
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
@@ -1387,7 +1387,7 @@
         <v>2.7372685185185184E-2</v>
       </c>
       <c r="D22" s="15">
-        <f t="shared" si="0"/>
+        <f>E22-C22</f>
         <v>1.7337962962962968E-2</v>
       </c>
       <c r="E22" s="16">
@@ -1397,7 +1397,7 @@
         <v>1.7210648148148149E-2</v>
       </c>
       <c r="G22" s="25">
-        <f t="shared" si="1"/>
+        <f>E22-F22</f>
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H22" s="15" t="s">
@@ -1420,7 +1420,7 @@
         <v>1.9131944444444444E-2</v>
       </c>
       <c r="D23" s="15">
-        <f t="shared" si="0"/>
+        <f>E23-C23</f>
         <v>3.574074074074074E-2</v>
       </c>
       <c r="E23" s="16">
@@ -1430,7 +1430,7 @@
         <v>3.829861111111111E-2</v>
       </c>
       <c r="G23" s="25">
-        <f t="shared" si="1"/>
+        <f>E23-F23</f>
         <v>1.6574074074074074E-2</v>
       </c>
       <c r="H23" s="15" t="s">
@@ -1453,7 +1453,7 @@
         <v>9.1747685185185182E-2</v>
       </c>
       <c r="D24" s="15">
-        <f t="shared" si="0"/>
+        <f>E24-C24</f>
         <v>3.9120370370370472E-3</v>
       </c>
       <c r="E24" s="16">
@@ -1463,7 +1463,7 @@
         <v>6.8888888888888888E-2</v>
       </c>
       <c r="G24" s="25">
-        <f t="shared" si="1"/>
+        <f>E24-F24</f>
         <v>2.6770833333333341E-2</v>
       </c>
       <c r="H24" s="15" t="s">
@@ -1472,7 +1472,9 @@
       <c r="I24" s="19" t="s">
         <v>46</v>
       </c>
-      <c r="J24" s="20"/>
+      <c r="J24" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="K24" s="4"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1626,7 +1628,7 @@
       <c r="B46" s="29"/>
     </row>
   </sheetData>
-  <sortState ref="E37:E43">
+  <sortState ref="A5:K24">
     <sortCondition ref="E37"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 21: ?</t>
-  </si>
-  <si>
     <t>Day 22: ?</t>
   </si>
   <si>
@@ -49,12 +46,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Adj. Rank</t>
-  </si>
-  <si>
-    <t>Raw Rank</t>
-  </si>
-  <si>
     <t>My Times</t>
   </si>
   <si>
@@ -167,6 +158,9 @@
   </si>
   <si>
     <t>Day 20: A Regular Map</t>
+  </si>
+  <si>
+    <t>Day 21: Chronal Conversion</t>
   </si>
 </sst>
 </file>
@@ -347,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -387,9 +381,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -721,21 +712,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K46"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M18" sqref="M18"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" customWidth="1"/>
-    <col min="3" max="10" width="9.7109375" customWidth="1"/>
-    <col min="11" max="11" width="6.85546875" customWidth="1"/>
+    <col min="3" max="9" width="9.7109375" customWidth="1"/>
+    <col min="10" max="10" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -746,47 +737,42 @@
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
-      <c r="K1" s="4"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I2" s="17"/>
-      <c r="J2" s="9"/>
-      <c r="K2" s="4"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+      <c r="I2" s="9"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="21"/>
+      <c r="B3" s="20"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="22"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="22"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="21"/>
       <c r="H3" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="I3" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="K3" s="4"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="4"/>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -798,26 +784,23 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>24</v>
+        <v>19</v>
+      </c>
+      <c r="G4" s="22" t="s">
+        <v>21</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="J4" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="K4" s="4"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="J4" s="4"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -826,31 +809,28 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f>E5-C5</f>
+        <f t="shared" ref="D5:D25" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
         <v>4.5023148148148149E-3</v>
       </c>
-      <c r="F5" s="24">
+      <c r="F5" s="23">
         <v>2.8935185185185188E-3</v>
       </c>
-      <c r="G5" s="24">
-        <f>E5-F5</f>
+      <c r="G5" s="23">
+        <f t="shared" ref="G5:G25" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="I5" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K5" s="4"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I5" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J5" s="4"/>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -859,700 +839,652 @@
         <v>7.4537037037037028E-3</v>
       </c>
       <c r="D6" s="15">
-        <f>E6-C6</f>
+        <f t="shared" si="0"/>
         <v>8.2291666666666693E-3</v>
       </c>
       <c r="E6" s="16">
         <v>1.5682870370370371E-2</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="23">
         <v>5.9953703703703697E-3</v>
       </c>
-      <c r="G6" s="24">
-        <f>E6-F6</f>
+      <c r="G6" s="23">
+        <f t="shared" si="1"/>
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="J6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K6" s="4"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I6" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="4"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
       </c>
       <c r="D7" s="15">
-        <f>E7-C7</f>
+        <f t="shared" si="0"/>
         <v>7.7314814814814833E-3</v>
       </c>
       <c r="E7" s="16">
         <v>1.5833333333333335E-2</v>
       </c>
-      <c r="F7" s="25">
+      <c r="F7" s="24">
         <v>9.5023148148148159E-3</v>
       </c>
-      <c r="G7" s="24">
-        <f>E7-F7</f>
+      <c r="G7" s="23">
+        <f t="shared" si="1"/>
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="J7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K7" s="4"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="4"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
       </c>
       <c r="D8" s="15">
-        <f>E8-C8</f>
+        <f t="shared" si="0"/>
         <v>6.1342592592592594E-3</v>
       </c>
       <c r="E8" s="16">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="F8" s="25">
+      <c r="F8" s="24">
         <v>1.3657407407407408E-2</v>
       </c>
-      <c r="G8" s="24">
-        <f>E8-F8</f>
+      <c r="G8" s="23">
+        <f t="shared" si="1"/>
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="K8" s="4"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
       </c>
       <c r="D9" s="15">
-        <f>E9-C9</f>
+        <f t="shared" si="0"/>
         <v>4.305555555555559E-3</v>
       </c>
       <c r="E9" s="16">
         <v>2.6284722222222223E-2</v>
       </c>
-      <c r="F9" s="25">
+      <c r="F9" s="24">
         <v>1.230324074074074E-2</v>
       </c>
-      <c r="G9" s="25">
-        <f>E9-F9</f>
+      <c r="G9" s="24">
+        <f t="shared" si="1"/>
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="4"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I9" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="4"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
       </c>
       <c r="D10" s="15">
-        <f>E10-C10</f>
+        <f t="shared" si="0"/>
         <v>1.4571759259259263E-2</v>
       </c>
       <c r="E10" s="16">
         <v>6.1724537037037036E-2</v>
       </c>
-      <c r="F10" s="25">
+      <c r="F10" s="24">
         <v>1.7233796296296296E-2</v>
       </c>
-      <c r="G10" s="25">
-        <f>E10-F10</f>
+      <c r="G10" s="24">
+        <f t="shared" si="1"/>
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I10" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="J10" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K10" s="4"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I10" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J10" s="4"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
       </c>
       <c r="D11" s="15">
-        <f>E11-C11</f>
+        <f t="shared" si="0"/>
         <v>3.0497685185185183E-2</v>
       </c>
       <c r="E11" s="16">
         <v>0.11599537037037037</v>
       </c>
-      <c r="F11" s="25">
+      <c r="F11" s="24">
         <v>2.6655092592592591E-2</v>
       </c>
-      <c r="G11" s="25">
-        <f>E11-F11</f>
+      <c r="G11" s="24">
+        <f t="shared" si="1"/>
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K11" s="4"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+      <c r="I11" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J11" s="4"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
       </c>
       <c r="D12" s="15">
-        <f>E12-C12</f>
+        <f t="shared" si="0"/>
         <v>2.2199074074074069E-2</v>
       </c>
       <c r="E12" s="16">
         <v>4.1215277777777774E-2</v>
       </c>
-      <c r="F12" s="25">
+      <c r="F12" s="24">
         <v>8.4606481481481494E-3</v>
       </c>
-      <c r="G12" s="25">
-        <f>E12-F12</f>
+      <c r="G12" s="24">
+        <f t="shared" si="1"/>
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I12" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="4"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I12" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J12" s="4"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
       </c>
       <c r="D13" s="15">
-        <f>E13-C13</f>
+        <f t="shared" si="0"/>
         <v>8.3900462962962968E-2</v>
       </c>
       <c r="E13" s="16">
         <v>0.12170138888888889</v>
       </c>
-      <c r="F13" s="25">
+      <c r="F13" s="24">
         <v>1.9432870370370371E-2</v>
       </c>
-      <c r="G13" s="25">
-        <f>E13-F13</f>
+      <c r="G13" s="24">
+        <f t="shared" si="1"/>
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I13" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J13" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K13" s="4"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
       </c>
       <c r="D14" s="15">
-        <f>E14-C14</f>
+        <f t="shared" si="0"/>
         <v>4.2824074074074292E-4</v>
       </c>
       <c r="E14" s="16">
         <v>3.771990740740741E-2</v>
       </c>
-      <c r="F14" s="25">
+      <c r="F14" s="24">
         <v>1.3912037037037037E-2</v>
       </c>
-      <c r="G14" s="25">
-        <f>E14-F14</f>
+      <c r="G14" s="24">
+        <f t="shared" si="1"/>
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I14" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K14" s="4"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
       </c>
       <c r="D15" s="15">
-        <f>E15-C15</f>
+        <f t="shared" si="0"/>
         <v>2.2893518518518518E-2</v>
       </c>
       <c r="E15" s="16">
         <v>4.7164351851851853E-2</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="24">
         <v>1.0081018518518519E-2</v>
       </c>
-      <c r="G15" s="25">
-        <f>E15-F15</f>
+      <c r="G15" s="24">
+        <f t="shared" si="1"/>
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I15" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K15" s="4"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I15" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="4"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
       </c>
       <c r="D16" s="15">
-        <f>E16-C16</f>
+        <f t="shared" si="0"/>
         <v>2.3819444444444445E-2</v>
       </c>
       <c r="E16" s="16">
         <v>5.0092592592592598E-2</v>
       </c>
-      <c r="F16" s="25">
+      <c r="F16" s="24">
         <v>1.9398148148148147E-2</v>
       </c>
-      <c r="G16" s="25">
-        <f>E16-F16</f>
+      <c r="G16" s="24">
+        <f t="shared" si="1"/>
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I16" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="K16" s="4"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I16" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
       </c>
       <c r="D17" s="15">
-        <f>E17-C17</f>
+        <f t="shared" si="0"/>
         <v>4.4421296296296299E-2</v>
       </c>
       <c r="E17" s="16">
         <v>8.2997685185185188E-2</v>
       </c>
-      <c r="F17" s="25">
+      <c r="F17" s="24">
         <v>2.6064814814814815E-2</v>
       </c>
-      <c r="G17" s="25">
-        <f>E17-F17</f>
+      <c r="G17" s="24">
+        <f t="shared" si="1"/>
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K17" s="4"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I17" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J17" s="4"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
       </c>
       <c r="D18" s="15">
-        <f>E18-C18</f>
+        <f t="shared" si="0"/>
         <v>1.7905092592592591E-2</v>
       </c>
       <c r="E18" s="16">
         <v>3.1041666666666665E-2</v>
       </c>
-      <c r="F18" s="25">
+      <c r="F18" s="24">
         <v>1.0462962962962964E-2</v>
       </c>
-      <c r="G18" s="25">
-        <f>E18-F18</f>
+      <c r="G18" s="24">
+        <f t="shared" si="1"/>
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="I18" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J18" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K18" s="4"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J18" s="4"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
       </c>
       <c r="D19" s="15">
-        <f>E19-C19</f>
+        <f t="shared" si="0"/>
         <v>5.3935185185185336E-3</v>
       </c>
       <c r="E19" s="16">
         <v>0.12150462962962964</v>
       </c>
-      <c r="F19" s="25">
+      <c r="F19" s="24">
         <v>9.5173611111111112E-2</v>
       </c>
-      <c r="G19" s="25">
-        <f>E19-F19</f>
+      <c r="G19" s="24">
+        <f t="shared" si="1"/>
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I19" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J19" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K19" s="4"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="4"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
       </c>
       <c r="D20" s="15">
-        <f>E20-C20</f>
+        <f t="shared" si="0"/>
         <v>1.409722222222223E-2</v>
       </c>
       <c r="E20" s="16">
         <v>3.876157407407408E-2</v>
       </c>
-      <c r="F20" s="25">
+      <c r="F20" s="24">
         <v>2.3680555555555555E-2</v>
       </c>
-      <c r="G20" s="25">
-        <f>E20-F20</f>
+      <c r="G20" s="24">
+        <f t="shared" si="1"/>
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="I20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="K20" s="4"/>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="4"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
       </c>
       <c r="D21" s="15">
-        <f>E21-C21</f>
+        <f t="shared" si="0"/>
         <v>9.1550925925925966E-3</v>
       </c>
       <c r="E21" s="16">
         <v>6.986111111111111E-2</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <v>6.986111111111111E-2</v>
       </c>
-      <c r="G21" s="25">
-        <f>E21-F21</f>
+      <c r="G21" s="24">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>46</v>
-      </c>
-      <c r="I21" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J21" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K21" s="4"/>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="I21" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C22" s="2">
         <v>2.7372685185185184E-2</v>
       </c>
       <c r="D22" s="15">
-        <f>E22-C22</f>
+        <f t="shared" si="0"/>
         <v>1.7337962962962968E-2</v>
       </c>
       <c r="E22" s="16">
         <v>4.4710648148148152E-2</v>
       </c>
-      <c r="F22" s="25">
+      <c r="F22" s="24">
         <v>1.7210648148148149E-2</v>
       </c>
-      <c r="G22" s="25">
-        <f>E22-F22</f>
+      <c r="G22" s="24">
+        <f t="shared" si="1"/>
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="I22" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="J22" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K22" s="4"/>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C23" s="2">
         <v>1.9131944444444444E-2</v>
       </c>
       <c r="D23" s="15">
-        <f>E23-C23</f>
+        <f t="shared" si="0"/>
         <v>3.574074074074074E-2</v>
       </c>
       <c r="E23" s="16">
         <v>5.4872685185185184E-2</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <v>3.829861111111111E-2</v>
       </c>
-      <c r="G23" s="25">
-        <f>E23-F23</f>
+      <c r="G23" s="24">
+        <f t="shared" si="1"/>
         <v>1.6574074074074074E-2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I23" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J23" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="K23" s="4"/>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="I23" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="2">
         <v>9.1747685185185182E-2</v>
       </c>
       <c r="D24" s="15">
-        <f>E24-C24</f>
+        <f t="shared" si="0"/>
         <v>3.9120370370370472E-3</v>
       </c>
       <c r="E24" s="16">
         <v>9.5659722222222229E-2</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="24">
         <v>6.8888888888888888E-2</v>
       </c>
-      <c r="G24" s="25">
-        <f>E24-F24</f>
+      <c r="G24" s="24">
+        <f t="shared" si="1"/>
         <v>2.6770833333333341E-2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="I24" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="J24" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="4"/>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+      <c r="I24" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5.3553240740740742E-2</v>
+      </c>
+      <c r="D25" s="15">
+        <f t="shared" si="0"/>
+        <v>2.2569444444444441E-2</v>
+      </c>
+      <c r="E25" s="16">
+        <v>7.6122685185185182E-2</v>
+      </c>
+      <c r="F25" s="24">
+        <v>2.3240740740740742E-2</v>
+      </c>
+      <c r="G25" s="24">
+        <f t="shared" si="1"/>
+        <v>5.288194444444444E-2</v>
+      </c>
+      <c r="H25" s="15" t="s">
+        <v>17</v>
+      </c>
       <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="4"/>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="15"/>
       <c r="E26" s="16"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
       <c r="H26" s="15"/>
       <c r="I26" s="19"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="4"/>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
       <c r="E27" s="16"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="25"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
       <c r="H27" s="15"/>
       <c r="I27" s="19"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="4"/>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
       <c r="E28" s="16"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
       <c r="H28" s="15"/>
       <c r="I28" s="19"/>
-      <c r="J28" s="20"/>
-      <c r="K28" s="4"/>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
       <c r="E29" s="16"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="25"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
       <c r="H29" s="15"/>
       <c r="I29" s="19"/>
-      <c r="J29" s="20"/>
-      <c r="K29" s="4"/>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1561,11 +1493,10 @@
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
       <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="4"/>
-    </row>
-    <row r="31" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I30" s="7"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1576,56 +1507,55 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D32" s="28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="27">
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E32" s="26">
         <f>MEDIAN(E5:E29)</f>
+        <v>4.7164351851851853E-2</v>
+      </c>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="D33" s="27" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" s="26">
+        <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
         <v>4.5937500000000006E-2</v>
       </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="28" t="s">
-        <v>35</v>
-      </c>
-      <c r="E33" s="27">
-        <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>4.4710648148148152E-2</v>
-      </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="29"/>
+      <c r="E37" s="28"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="29"/>
+      <c r="E38" s="28"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="29"/>
+      <c r="E39" s="28"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="29"/>
+      <c r="E40" s="28"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="29"/>
+      <c r="E41" s="28"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="29"/>
+      <c r="E42" s="28"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="29"/>
+      <c r="E43" s="28"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="30"/>
+      <c r="E44" s="29"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="29"/>
+      <c r="B46" s="28"/>
     </row>
   </sheetData>
   <sortState ref="A5:K24">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 22: ?</t>
-  </si>
-  <si>
     <t>Day 23: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Day 21: Chronal Conversion</t>
+  </si>
+  <si>
+    <t>Day 22: Mode Maze</t>
   </si>
 </sst>
 </file>
@@ -715,7 +715,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,13 +743,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="4"/>
@@ -761,14 +761,14 @@
       <c r="D3" s="21"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -784,19 +784,19 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -809,7 +809,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D25" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D26" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -819,14 +819,14 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="23">
-        <f t="shared" ref="G5:G25" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G26" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -853,17 +853,17 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -883,17 +883,17 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -913,17 +913,17 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>17</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>18</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -943,17 +943,17 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -973,17 +973,17 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1003,17 +1003,17 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>13</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>14</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1033,17 +1033,17 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1063,17 +1063,17 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1093,17 +1093,17 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1123,17 +1123,17 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1153,17 +1153,17 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1183,17 +1183,17 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1213,17 +1213,17 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1243,17 +1243,17 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1273,17 +1273,17 @@
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
@@ -1303,17 +1303,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C22" s="2">
         <v>2.7372685185185184E-2</v>
@@ -1333,17 +1333,17 @@
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C23" s="2">
         <v>1.9131944444444444E-2</v>
@@ -1363,17 +1363,17 @@
         <v>1.6574074074074074E-2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C24" s="2">
         <v>9.1747685185185182E-2</v>
@@ -1393,17 +1393,17 @@
         <v>2.6770833333333341E-2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="2">
         <v>5.3553240740740742E-2</v>
@@ -1423,29 +1423,45 @@
         <v>5.288194444444444E-2</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="I25" s="19"/>
+        <v>16</v>
+      </c>
+      <c r="I25" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" s="2"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="24"/>
-      <c r="H26" s="15"/>
+        <v>48</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1.6562500000000001E-2</v>
+      </c>
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
+        <v>8.5729166666666662E-2</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0.10229166666666667</v>
+      </c>
+      <c r="F26" s="24">
+        <v>3.3518518518518517E-2</v>
+      </c>
+      <c r="G26" s="24">
+        <f t="shared" si="1"/>
+        <v>6.8773148148148153E-2</v>
+      </c>
+      <c r="H26" s="15" t="s">
+        <v>13</v>
+      </c>
       <c r="I26" s="19"/>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1459,7 +1475,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1473,7 +1489,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1510,22 +1526,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E32" s="26">
         <f>MEDIAN(E5:E29)</f>
-        <v>4.7164351851851853E-2</v>
+        <v>4.8628472222222226E-2</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="27" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E33" s="26">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>4.5937500000000006E-2</v>
+        <v>4.7164351851851853E-2</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1455,7 +1455,9 @@
       <c r="H26" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I26" s="19"/>
+      <c r="I26" s="25" t="s">
+        <v>27</v>
+      </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 23: ?</t>
-  </si>
-  <si>
     <t>Day 24: ?</t>
   </si>
   <si>
@@ -161,6 +158,9 @@
   </si>
   <si>
     <t>Day 22: Mode Maze</t>
+  </si>
+  <si>
+    <t>Day 23: Experimental Emergency Teleportation</t>
   </si>
 </sst>
 </file>
@@ -715,13 +715,13 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1"/>
     <col min="3" max="9" width="9.7109375" customWidth="1"/>
     <col min="10" max="10" width="6.85546875" customWidth="1"/>
   </cols>
@@ -743,13 +743,13 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
       <c r="G2" s="17"/>
       <c r="H2" s="17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="I2" s="9"/>
       <c r="J2" s="4"/>
@@ -761,14 +761,14 @@
       <c r="D3" s="21"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I3" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -784,19 +784,19 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" s="22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H4" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I4" s="11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -823,10 +823,10 @@
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -853,17 +853,17 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="25" t="s">
         <v>12</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>13</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -883,17 +883,17 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -913,17 +913,17 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" s="25" t="s">
         <v>16</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>17</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -943,17 +943,17 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -973,17 +973,17 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1003,17 +1003,17 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I11" s="25" t="s">
         <v>12</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>13</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1033,17 +1033,17 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1063,17 +1063,17 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1093,17 +1093,17 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1123,17 +1123,17 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1153,17 +1153,17 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1183,17 +1183,17 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1213,17 +1213,17 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1243,17 +1243,17 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1273,17 +1273,17 @@
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
@@ -1303,17 +1303,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="2">
         <v>2.7372685185185184E-2</v>
@@ -1333,17 +1333,17 @@
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="2">
         <v>1.9131944444444444E-2</v>
@@ -1363,17 +1363,17 @@
         <v>1.6574074074074074E-2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C24" s="2">
         <v>9.1747685185185182E-2</v>
@@ -1393,17 +1393,17 @@
         <v>2.6770833333333341E-2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="2">
         <v>5.3553240740740742E-2</v>
@@ -1423,17 +1423,17 @@
         <v>5.288194444444444E-2</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="2">
         <v>1.6562500000000001E-2</v>
@@ -1453,17 +1453,17 @@
         <v>6.8773148148148153E-2</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>48</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="15"/>
@@ -1477,7 +1477,7 @@
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="15"/>
@@ -1491,7 +1491,7 @@
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1528,7 +1528,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="27" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E32" s="26">
         <f>MEDIAN(E5:E29)</f>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E33" s="26">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -715,7 +715,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -809,7 +809,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D26" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D27" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -819,7 +819,7 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="23">
-        <f t="shared" ref="G5:G26" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G27" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
@@ -1465,12 +1465,26 @@
       <c r="B27" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="2"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="16"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="24"/>
-      <c r="H27" s="15"/>
+      <c r="C27" s="2">
+        <v>5.9375000000000009E-3</v>
+      </c>
+      <c r="D27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.14686342592592591</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0.15280092592592592</v>
+      </c>
+      <c r="F27" s="24">
+        <v>0.15280092592592592</v>
+      </c>
+      <c r="G27" s="24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H27" s="15" t="s">
+        <v>41</v>
+      </c>
       <c r="I27" s="19"/>
       <c r="J27" s="4"/>
     </row>
@@ -1532,7 +1546,7 @@
       </c>
       <c r="E32" s="26">
         <f>MEDIAN(E5:E29)</f>
-        <v>4.8628472222222226E-2</v>
+        <v>5.0092592592592598E-2</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
@@ -1543,7 +1557,7 @@
       </c>
       <c r="E33" s="26">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>4.7164351851851853E-2</v>
+        <v>4.8628472222222226E-2</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 24: ?</t>
-  </si>
-  <si>
     <t>Day 25: ?</t>
   </si>
   <si>
@@ -43,9 +40,6 @@
     <t>My Times</t>
   </si>
   <si>
-    <t>Novetta Leaderboard</t>
-  </si>
-  <si>
     <t>2nd</t>
   </si>
   <si>
@@ -161,6 +155,12 @@
   </si>
   <si>
     <t>Day 23: Experimental Emergency Teleportation</t>
+  </si>
+  <si>
+    <t>Day 24: Immune System Simulator 20XX</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Novetta Leaderboard    </t>
   </si>
 </sst>
 </file>
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -410,6 +410,12 @@
     <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -715,7 +721,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -743,14 +749,14 @@
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17" t="s">
-        <v>9</v>
-      </c>
+      <c r="G2" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="H2" s="32"/>
       <c r="I2" s="9"/>
       <c r="J2" s="4"/>
     </row>
@@ -761,14 +767,14 @@
       <c r="D3" s="21"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>22</v>
       </c>
       <c r="J3" s="4"/>
     </row>
@@ -784,19 +790,19 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F4" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="22" t="s">
+      <c r="H4" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="12" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="J4" s="4"/>
     </row>
@@ -809,7 +815,7 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D27" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D28" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
@@ -819,14 +825,14 @@
         <v>2.8935185185185188E-3</v>
       </c>
       <c r="G5" s="23">
-        <f t="shared" ref="G5:G27" si="1">E5-F5</f>
+        <f t="shared" ref="G5:G28" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
       <c r="H5" s="18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I5" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J5" s="4"/>
     </row>
@@ -853,17 +859,17 @@
         <v>9.6875000000000017E-3</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I6" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J6" s="4"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -883,17 +889,17 @@
         <v>6.3310185185185188E-3</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I7" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J7" s="4"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -913,17 +919,17 @@
         <v>1.4467592592592593E-2</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I8" s="25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J8" s="4"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -943,17 +949,17 @@
         <v>1.3981481481481484E-2</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I9" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J9" s="4"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -973,17 +979,17 @@
         <v>4.449074074074074E-2</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I10" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1003,17 +1009,17 @@
         <v>8.9340277777777782E-2</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I11" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11" s="4"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1033,17 +1039,17 @@
         <v>3.2754629629629627E-2</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I12" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J12" s="4"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1063,17 +1069,17 @@
         <v>0.10226851851851851</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="I13" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J13" s="4"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1093,17 +1099,17 @@
         <v>2.3807870370370375E-2</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I14" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J14" s="4"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1123,17 +1129,17 @@
         <v>3.7083333333333336E-2</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I15" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J15" s="4"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1153,17 +1159,17 @@
         <v>3.0694444444444451E-2</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I16" s="25" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1183,17 +1189,17 @@
         <v>5.693287037037037E-2</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I17" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J17" s="4"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1213,17 +1219,17 @@
         <v>2.0578703703703703E-2</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="I18" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J18" s="4"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1243,17 +1249,17 @@
         <v>2.6331018518518531E-2</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I19" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J19" s="4"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1273,17 +1279,17 @@
         <v>1.5081018518518525E-2</v>
       </c>
       <c r="H20" s="15" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="I20" s="30" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="J20" s="4"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
@@ -1303,17 +1309,17 @@
         <v>0</v>
       </c>
       <c r="H21" s="15" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="I21" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J21" s="4"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2">
         <v>2.7372685185185184E-2</v>
@@ -1333,17 +1339,17 @@
         <v>2.7500000000000004E-2</v>
       </c>
       <c r="H22" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I22" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J22" s="4"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C23" s="2">
         <v>1.9131944444444444E-2</v>
@@ -1363,17 +1369,17 @@
         <v>1.6574074074074074E-2</v>
       </c>
       <c r="H23" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I23" s="25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J23" s="4"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C24" s="2">
         <v>9.1747685185185182E-2</v>
@@ -1393,17 +1399,17 @@
         <v>2.6770833333333341E-2</v>
       </c>
       <c r="H24" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I24" s="25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="J24" s="4"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C25" s="2">
         <v>5.3553240740740742E-2</v>
@@ -1423,17 +1429,17 @@
         <v>5.288194444444444E-2</v>
       </c>
       <c r="H25" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="I25" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C26" s="2">
         <v>1.6562500000000001E-2</v>
@@ -1453,17 +1459,17 @@
         <v>6.8773148148148153E-2</v>
       </c>
       <c r="H26" s="15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I26" s="25" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="J26" s="4"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C27" s="2">
         <v>5.9375000000000009E-3</v>
@@ -1483,29 +1489,45 @@
         <v>0</v>
       </c>
       <c r="H27" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="I27" s="19"/>
+        <v>39</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>40</v>
+      </c>
       <c r="J27" s="4"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="24"/>
-      <c r="H28" s="15"/>
+        <v>47</v>
+      </c>
+      <c r="C28" s="2">
+        <v>8.6851851851851847E-2</v>
+      </c>
+      <c r="D28" s="15">
+        <f t="shared" si="0"/>
+        <v>2.0196759259259275E-2</v>
+      </c>
+      <c r="E28" s="16">
+        <v>0.10704861111111112</v>
+      </c>
+      <c r="F28" s="24">
+        <v>7.2268518518518524E-2</v>
+      </c>
+      <c r="G28" s="24">
+        <f t="shared" si="1"/>
+        <v>3.4780092592592599E-2</v>
+      </c>
+      <c r="H28" s="15" t="s">
+        <v>10</v>
+      </c>
       <c r="I28" s="19"/>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="15"/>
@@ -1542,22 +1564,22 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="D32" s="27" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E32" s="26">
         <f>MEDIAN(E5:E29)</f>
-        <v>5.0092592592592598E-2</v>
+        <v>5.2482638888888891E-2</v>
       </c>
       <c r="F32" s="26"/>
       <c r="G32" s="26"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
       <c r="D33" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E33" s="26">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>4.8628472222222226E-2</v>
+        <v>5.0092592592592598E-2</v>
       </c>
       <c r="F33" s="26"/>
       <c r="G33" s="26"/>

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
   <si>
     <t>Puzzle</t>
   </si>
@@ -721,7 +721,7 @@
   <dimension ref="A1:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1521,7 +1521,9 @@
       <c r="H28" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="I28" s="19"/>
+      <c r="I28" s="25" t="s">
+        <v>39</v>
+      </c>
       <c r="J28" s="4"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">

--- a/data/viz/2018-personalStats.xlsx
+++ b/data/viz/2018-personalStats.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="47">
   <si>
     <t>Puzzle</t>
   </si>
@@ -31,9 +31,6 @@
     <t>Day 2: Inventory Management System</t>
   </si>
   <si>
-    <t>Day 25: ?</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -73,12 +70,6 @@
     <t>Daily</t>
   </si>
   <si>
-    <t>Rank</t>
-  </si>
-  <si>
-    <t>Overall</t>
-  </si>
-  <si>
     <t>Day 4: Repose Record</t>
   </si>
   <si>
@@ -136,9 +127,6 @@
     <t>1st</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Day 18: Settlers of The North Pole</t>
   </si>
   <si>
@@ -161,6 +149,12 @@
   </si>
   <si>
     <t xml:space="preserve">Novetta Leaderboard    </t>
+  </si>
+  <si>
+    <t>Day 25: Four-Dimensional Adventure</t>
+  </si>
+  <si>
+    <t>Finish</t>
   </si>
 </sst>
 </file>
@@ -341,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -380,12 +374,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -399,23 +387,17 @@
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="21" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="21" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -718,21 +700,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+      <selection activeCell="E29" sqref="E5:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5.28515625" customWidth="1"/>
     <col min="2" max="2" width="42.5703125" customWidth="1"/>
-    <col min="3" max="9" width="9.7109375" customWidth="1"/>
-    <col min="10" max="10" width="6.85546875" customWidth="1"/>
+    <col min="3" max="8" width="9.7109375" customWidth="1"/>
+    <col min="9" max="9" width="6.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4"/>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -742,43 +724,38 @@
       <c r="G1" s="4"/>
       <c r="H1" s="4"/>
       <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="8"/>
       <c r="C2" s="13"/>
       <c r="D2" s="17" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E2" s="9"/>
       <c r="F2" s="14"/>
-      <c r="G2" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="4"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G2" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="H2" s="27"/>
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="20"/>
+      <c r="B3" s="18"/>
       <c r="C3" s="10"/>
-      <c r="D3" s="21"/>
+      <c r="D3" s="19"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="21"/>
-      <c r="H3" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="J3" s="4"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+        <v>10</v>
+      </c>
+      <c r="G3" s="19"/>
+      <c r="H3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="3" t="s">
         <v>0</v>
@@ -790,23 +767,20 @@
         <v>2</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F4" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="G4" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="4"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="1" t="s">
         <v>3</v>
@@ -815,28 +789,25 @@
         <v>2.4074074074074076E-3</v>
       </c>
       <c r="D5" s="15">
-        <f t="shared" ref="D5:D28" si="0">E5-C5</f>
+        <f t="shared" ref="D5:D29" si="0">E5-C5</f>
         <v>2.0949074074074073E-3</v>
       </c>
       <c r="E5" s="16">
         <v>4.5023148148148149E-3</v>
       </c>
-      <c r="F5" s="23">
+      <c r="F5" s="21">
         <v>2.8935185185185188E-3</v>
       </c>
-      <c r="G5" s="23">
-        <f t="shared" ref="G5:G28" si="1">E5-F5</f>
+      <c r="G5" s="21">
+        <f t="shared" ref="G5:G29" si="1">E5-F5</f>
         <v>1.6087962962962961E-3</v>
       </c>
-      <c r="H5" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J5" s="4"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H5" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="1" t="s">
         <v>4</v>
@@ -851,25 +822,22 @@
       <c r="E6" s="16">
         <v>1.5682870370370371E-2</v>
       </c>
-      <c r="F6" s="23">
+      <c r="F6" s="21">
         <v>5.9953703703703697E-3</v>
       </c>
-      <c r="G6" s="23">
+      <c r="G6" s="21">
         <f t="shared" si="1"/>
         <v>9.6875000000000017E-3</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="I6" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" s="4"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H6" s="28" t="s">
+        <v>8</v>
+      </c>
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>8.1018518518518514E-3</v>
@@ -881,25 +849,22 @@
       <c r="E7" s="16">
         <v>1.5833333333333335E-2</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="22">
         <v>9.5023148148148159E-3</v>
       </c>
-      <c r="G7" s="23">
+      <c r="G7" s="21">
         <f t="shared" si="1"/>
         <v>6.3310185185185188E-3</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J7" s="4"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C8" s="2">
         <v>2.1990740740740741E-2</v>
@@ -911,25 +876,22 @@
       <c r="E8" s="16">
         <v>2.8125000000000001E-2</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="22">
         <v>1.3657407407407408E-2</v>
       </c>
-      <c r="G8" s="23">
+      <c r="G8" s="21">
         <f t="shared" si="1"/>
         <v>1.4467592592592593E-2</v>
       </c>
-      <c r="H8" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I8" s="25" t="s">
-        <v>14</v>
-      </c>
-      <c r="J8" s="4"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C9" s="2">
         <v>2.1979166666666664E-2</v>
@@ -941,25 +903,22 @@
       <c r="E9" s="16">
         <v>2.6284722222222223E-2</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>1.230324074074074E-2</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <f t="shared" si="1"/>
         <v>1.3981481481481484E-2</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I9" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="4"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C10" s="2">
         <v>4.7152777777777773E-2</v>
@@ -971,25 +930,22 @@
       <c r="E10" s="16">
         <v>6.1724537037037036E-2</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="22">
         <v>1.7233796296296296E-2</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="22">
         <f t="shared" si="1"/>
         <v>4.449074074074074E-2</v>
       </c>
-      <c r="H10" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C11" s="2">
         <v>8.549768518518519E-2</v>
@@ -1001,25 +957,22 @@
       <c r="E11" s="16">
         <v>0.11599537037037037</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="22">
         <v>2.6655092592592591E-2</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="22">
         <f t="shared" si="1"/>
         <v>8.9340277777777782E-2</v>
       </c>
-      <c r="H11" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I11" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J11" s="4"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C12" s="2">
         <v>1.9016203703703705E-2</v>
@@ -1031,25 +984,22 @@
       <c r="E12" s="16">
         <v>4.1215277777777774E-2</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="22">
         <v>8.4606481481481494E-3</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="22">
         <f t="shared" si="1"/>
         <v>3.2754629629629627E-2</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I12" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J12" s="4"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H12" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C13" s="2">
         <v>3.7800925925925925E-2</v>
@@ -1061,25 +1011,22 @@
       <c r="E13" s="16">
         <v>0.12170138888888889</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="22">
         <v>1.9432870370370371E-2</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="22">
         <f t="shared" si="1"/>
         <v>0.10226851851851851</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="I13" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J13" s="4"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H13" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="1" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C14" s="2">
         <v>3.7291666666666667E-2</v>
@@ -1091,25 +1038,22 @@
       <c r="E14" s="16">
         <v>3.771990740740741E-2</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="22">
         <v>1.3912037037037037E-2</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="22">
         <f t="shared" si="1"/>
         <v>2.3807870370370375E-2</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I14" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J14" s="4"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H14" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="4"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="1" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C15" s="2">
         <v>2.4270833333333335E-2</v>
@@ -1121,25 +1065,22 @@
       <c r="E15" s="16">
         <v>4.7164351851851853E-2</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="22">
         <v>1.0081018518518519E-2</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="22">
         <f t="shared" si="1"/>
         <v>3.7083333333333336E-2</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I15" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J15" s="4"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H15" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="4"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C16" s="2">
         <v>2.6273148148148153E-2</v>
@@ -1151,25 +1092,22 @@
       <c r="E16" s="16">
         <v>5.0092592592592598E-2</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="22">
         <v>1.9398148148148147E-2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="22">
         <f t="shared" si="1"/>
         <v>3.0694444444444451E-2</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I16" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="J16" s="4"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H16" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C17" s="2">
         <v>3.8576388888888889E-2</v>
@@ -1181,25 +1119,22 @@
       <c r="E17" s="16">
         <v>8.2997685185185188E-2</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="22">
         <v>2.6064814814814815E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="22">
         <f t="shared" si="1"/>
         <v>5.693287037037037E-2</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I17" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J17" s="4"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I17" s="4"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C18" s="2">
         <v>1.3136574074074077E-2</v>
@@ -1211,25 +1146,22 @@
       <c r="E18" s="16">
         <v>3.1041666666666665E-2</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="22">
         <v>1.0462962962962964E-2</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="22">
         <f t="shared" si="1"/>
         <v>2.0578703703703703E-2</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I18" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J18" s="4"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="I18" s="4"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C19" s="2">
         <v>0.11611111111111111</v>
@@ -1241,25 +1173,22 @@
       <c r="E19" s="16">
         <v>0.12150462962962964</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="22">
         <v>9.5173611111111112E-2</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="22">
         <f t="shared" si="1"/>
         <v>2.6331018518518531E-2</v>
       </c>
-      <c r="H19" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I19" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J19" s="4"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I19" s="4"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C20" s="2">
         <v>2.4664351851851851E-2</v>
@@ -1271,25 +1200,22 @@
       <c r="E20" s="16">
         <v>3.876157407407408E-2</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <v>2.3680555555555555E-2</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="22">
         <f t="shared" si="1"/>
         <v>1.5081018518518525E-2</v>
       </c>
-      <c r="H20" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J20" s="4"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H20" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="I20" s="4"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C21" s="2">
         <v>6.0706018518518513E-2</v>
@@ -1301,25 +1227,22 @@
       <c r="E21" s="16">
         <v>6.986111111111111E-2</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="22">
         <v>6.986111111111111E-2</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H21" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J21" s="4"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I21" s="4"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C22" s="2">
         <v>2.7372685185185184E-2</v>
@@ -1331,25 +1254,22 @@
       <c r="E22" s="16">
         <v>4.4710648148148152E-2</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="22">
         <v>1.7210648148148149E-2</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="22">
         <f t="shared" si="1"/>
         <v>2.7500000000000004E-2</v>
       </c>
-      <c r="H22" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J22" s="4"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H22" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="4"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="1" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C23" s="2">
         <v>1.9131944444444444E-2</v>
@@ -1361,25 +1281,22 @@
       <c r="E23" s="16">
         <v>5.4872685185185184E-2</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="22">
         <v>3.829861111111111E-2</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="22">
         <f t="shared" si="1"/>
         <v>1.6574074074074074E-2</v>
       </c>
-      <c r="H23" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I23" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J23" s="4"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H23" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I23" s="4"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="1" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C24" s="2">
         <v>9.1747685185185182E-2</v>
@@ -1391,25 +1308,22 @@
       <c r="E24" s="16">
         <v>9.5659722222222229E-2</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="22">
         <v>6.8888888888888888E-2</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="22">
         <f t="shared" si="1"/>
         <v>2.6770833333333341E-2</v>
       </c>
-      <c r="H24" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="I24" s="25" t="s">
-        <v>8</v>
-      </c>
-      <c r="J24" s="4"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H24" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="I24" s="4"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="C25" s="2">
         <v>5.3553240740740742E-2</v>
@@ -1421,25 +1335,22 @@
       <c r="E25" s="16">
         <v>7.6122685185185182E-2</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <v>2.3240740740740742E-2</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="22">
         <f t="shared" si="1"/>
         <v>5.288194444444444E-2</v>
       </c>
-      <c r="H25" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I25" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="4"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H25" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I25" s="4"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="1" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C26" s="2">
         <v>1.6562500000000001E-2</v>
@@ -1451,25 +1362,22 @@
       <c r="E26" s="16">
         <v>0.10229166666666667</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="22">
         <v>3.3518518518518517E-2</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="22">
         <f t="shared" si="1"/>
         <v>6.8773148148148153E-2</v>
       </c>
-      <c r="H26" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I26" s="25" t="s">
-        <v>24</v>
-      </c>
-      <c r="J26" s="4"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H26" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I26" s="4"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="C27" s="2">
         <v>5.9375000000000009E-3</v>
@@ -1481,25 +1389,22 @@
       <c r="E27" s="16">
         <v>0.15280092592592592</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="22">
         <v>0.15280092592592592</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="22">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H27" s="15" t="s">
-        <v>39</v>
-      </c>
-      <c r="I27" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H27" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="4"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
       <c r="B28" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C28" s="2">
         <v>8.6851851851851847E-2</v>
@@ -1511,36 +1416,46 @@
       <c r="E28" s="16">
         <v>0.10704861111111112</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="22">
         <v>7.2268518518518524E-2</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="22">
         <f t="shared" si="1"/>
         <v>3.4780092592592599E-2</v>
       </c>
-      <c r="H28" s="15" t="s">
-        <v>10</v>
-      </c>
-      <c r="I28" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="J28" s="4"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H28" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I28" s="4"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
       <c r="B29" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="16"/>
-      <c r="F29" s="24"/>
-      <c r="G29" s="24"/>
-      <c r="H29" s="15"/>
-      <c r="I29" s="19"/>
-      <c r="J29" s="4"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="C29" s="2">
+        <v>4.1932870370370377E-2</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
+        <v>1.157407407407357E-4</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4.2048611111111113E-2</v>
+      </c>
+      <c r="F29" s="22">
+        <v>1.4837962962962963E-2</v>
+      </c>
+      <c r="G29" s="22">
+        <f t="shared" si="1"/>
+        <v>2.721064814814815E-2</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="I29" s="4"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
@@ -1548,11 +1463,10 @@
       <c r="E30" s="7"/>
       <c r="F30" s="6"/>
       <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="7"/>
-      <c r="J30" s="4"/>
-    </row>
-    <row r="31" spans="1:10" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="7"/>
+      <c r="I30" s="4"/>
+    </row>
+    <row r="31" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -1562,56 +1476,55 @@
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D32" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="E32" s="26">
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D32" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E32" s="23">
         <f>MEDIAN(E5:E29)</f>
-        <v>5.2482638888888891E-2</v>
-      </c>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
+        <v>5.0092592592592598E-2</v>
+      </c>
+      <c r="F32" s="23"/>
+      <c r="G32" s="23"/>
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D33" s="27" t="s">
-        <v>28</v>
-      </c>
-      <c r="E33" s="26">
+      <c r="D33" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="E33" s="23">
         <f>MEDIAN(E5,E6,E7,E8,E9,E11,E12,E13,E14,E15,E16,E17,E18,E19,E20,E21,E22,E23,E24,E25,E26,E27,E28,E29)</f>
-        <v>5.0092592592592598E-2</v>
-      </c>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
+        <v>4.8628472222222226E-2</v>
+      </c>
+      <c r="F33" s="23"/>
+      <c r="G33" s="23"/>
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E37" s="28"/>
+      <c r="E37" s="25"/>
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E38" s="28"/>
+      <c r="E38" s="25"/>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E39" s="28"/>
+      <c r="E39" s="25"/>
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E40" s="28"/>
+      <c r="E40" s="25"/>
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E41" s="28"/>
+      <c r="E41" s="25"/>
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E42" s="28"/>
+      <c r="E42" s="25"/>
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E43" s="28"/>
+      <c r="E43" s="25"/>
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="E44" s="29"/>
+      <c r="E44" s="26"/>
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B46" s="28"/>
+      <c r="B46" s="25"/>
     </row>
   </sheetData>
   <sortState ref="A5:K24">
